--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Belka/Documents/$GoIT/progects/cheet-sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6A8F89-7E45-2D41-A1E4-D1489E5E0482}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697985DE-9EE3-6844-9842-4D28F5E4A392}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{2F5520A7-1FB2-A647-8A1B-93FF762164C4}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'data-processing'!$A$1:$D$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">DOM!$A$1:$C$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">DOM!$A$1:$C$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">events!$A$1:$C$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="136">
   <si>
     <t>№</t>
   </si>
@@ -987,6 +987,12 @@
     <t>name of the current node as a string in upper-case</t>
   </si>
   <si>
+    <t>object with methods for work with the element’s classes</t>
+  </si>
+  <si>
+    <t>object of all attributes of the element</t>
+  </si>
+  <si>
     <r>
       <t>elem</t>
     </r>
@@ -998,13 +1004,1424 @@
         <rFont val="Helvetica"/>
         <family val="2"/>
       </rPr>
+      <t>.attributes</t>
+    </r>
+  </si>
+  <si>
+    <t>elem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.querySelector(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'tagName[data-attrName="attrValue"]' </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.closest(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>'#idName'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.textContent</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.checked</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.disabled</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.nodeName</t>
+    </r>
+  </si>
+  <si>
+    <t>elemForm</t>
+  </si>
+  <si>
+    <t>.hasAttribute() / .getAttribute() / .setAttribute() / .removeAttribute()</t>
+  </si>
+  <si>
+    <t>.className / .href / .src</t>
+  </si>
+  <si>
+    <t>.parentElement / .children / .firstElementChild / .nextElementSibling</t>
+  </si>
+  <si>
+    <t>.contains() / .add() / .remove() / .toggle() / .replace('old','new')</t>
+  </si>
+  <si>
+    <t>.elements.formName / .elements.formName.value</t>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.style</t>
+    </r>
+  </si>
+  <si>
+    <t>a part of the string between the start and end indexes</t>
+  </si>
+  <si>
+    <t>consolidate two or more arrays into one</t>
+  </si>
+  <si>
+    <t>if a string ends with the specified value</t>
+  </si>
+  <si>
+    <t>copy an array whith filtering</t>
+  </si>
+  <si>
+    <t>add elements after / before all children</t>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.append(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>el1, el2, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.prepend(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>el1, el2, ...</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>remove / add element</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.remove()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> /  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.after()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.before()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.innerHTML</t>
+    </r>
+  </si>
+  <si>
+    <t>the content of an element, including tags, as a string</t>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.insertAdjacentHTML(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>position, string</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">string = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add a string with HTML tags </t>
+  </si>
+  <si>
+    <t>'beforebegin' / 'afterbegin' / 'beforeend' / 'afterend'</t>
+  </si>
+  <si>
+    <r>
+      <t>.pop(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> .shift(value) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.splice(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>index, num</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.reduce(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(acc, element, index, array)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.addEventListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>event, handler[, {once: true}]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.removeEventListener(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>event, handler[, {\\options}]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>objName.callbackName.bind(objName)</t>
+  </si>
+  <si>
+    <t>the element on which the event is occured</t>
+  </si>
+  <si>
+    <t>the event type</t>
+  </si>
+  <si>
+    <t>the element on which the event handler is executed</t>
+  </si>
+  <si>
+    <t>completely stop event handling</t>
+  </si>
+  <si>
+    <t>impede the event to go further</t>
+  </si>
+  <si>
+    <t>the character generated by key pressing</t>
+  </si>
+  <si>
+    <t>the code of a physical key on the keyboard</t>
+  </si>
+  <si>
+    <t>a boolean whether key is pressed or not</t>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.target</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.preventDefault()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.stopPropagation()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.stopImmediatePropagation()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.key</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.code</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ctrlKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.altKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.shiftkey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> | </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.metaKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_.throttle(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, [{'trailing':true | leading':true}]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>_.debounce(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>func</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, [{trailing:false, leading:true}]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;img </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>loading</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>="lazy" /&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boolean(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>'loading' in HTMLImageElement.prototype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>lazy load below the fold images</t>
+  </si>
+  <si>
+    <t>check if browser supports natively lazy loading</t>
+  </si>
+  <si>
+    <t>current text content of form-elements</t>
+  </si>
+  <si>
+    <t>control how many times a function to be executed over time</t>
+  </si>
+  <si>
+    <t>.fontSize / .backgroundColor / .textAlign / … [ = 'value']</t>
+  </si>
+  <si>
+    <r>
+      <t>event</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.currentTarget</t>
+    </r>
+  </si>
+  <si>
+    <t>element on which the event handler is executed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> handler = </t>
+  </si>
+  <si>
+    <r>
+      <t>elemForm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.reset()</t>
+    </r>
+  </si>
+  <si>
+    <t>object with properties of inline element's styles</t>
+  </si>
+  <si>
+    <r>
+      <t>elemForm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.elements</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">const formData = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>FormData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>(elemForm)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">clear the values of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elemForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form-element</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">object of all names and values of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elemForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> form-element</t>
+    </r>
+  </si>
+  <si>
+    <t>object of all data-attribute's names and values</t>
+  </si>
+  <si>
+    <r>
+      <t>document</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.createElement(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>'tagName'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>create an element, return a reference to it</t>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> elem.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>dataset</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.attrName</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.clientWidth</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.clientHeight</t>
+    </r>
+  </si>
+  <si>
+    <t>width and height of the elem</t>
+  </si>
+  <si>
+    <r>
+      <t>to get / to do              event =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 'click' / 'keydown' / 'submit' / 'change' / 'input' / 'focus' / 'blur' / 'load' / 'mouseover' / 'wheel' / 'scroll'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.style</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>elem</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
       <t>.classList</t>
     </r>
   </si>
   <si>
-    <t>object with methods for work with the element’s classes</t>
-  </si>
-  <si>
     <r>
       <t>elem</t>
     </r>
@@ -1012,289 +2429,6 @@
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.style</t>
-    </r>
-  </si>
-  <si>
-    <t>object of all attributes of the element</t>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.attributes</t>
-    </r>
-  </si>
-  <si>
-    <t>elem</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.querySelector(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">'tagName[data-attrName="attrValue"]' </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.closest(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>'#idName'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.textContent</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.checked</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.disabled</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.nodeName</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.dataset</t>
-    </r>
-  </si>
-  <si>
-    <t>elemForm</t>
-  </si>
-  <si>
-    <t>.hasAttribute() / .getAttribute() / .setAttribute() / .removeAttribute()</t>
-  </si>
-  <si>
-    <t>.className / .href / .src</t>
-  </si>
-  <si>
-    <t>.parentElement / .children / .firstElementChild / .nextElementSibling</t>
-  </si>
-  <si>
-    <t>.contains() / .add() / .remove() / .toggle() / .replace('old','new')</t>
-  </si>
-  <si>
-    <t>.elements.formName / .elements.formName.value</t>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Helvetica"/>
         <family val="2"/>
@@ -1304,1036 +2438,37 @@
   </si>
   <si>
     <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.style</t>
-    </r>
-  </si>
-  <si>
-    <t>a part of the string between the start and end indexes</t>
-  </si>
-  <si>
-    <t>consolidate two or more arrays into one</t>
-  </si>
-  <si>
-    <t>if a string ends with the specified value</t>
-  </si>
-  <si>
-    <t>copy an array whith filtering</t>
-  </si>
-  <si>
-    <t>add elements after / before all children</t>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.append(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>el1, el2, ...</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.prepend(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>el1, el2, ...</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>remove / add element</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.remove()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> /  </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.after()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> / </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.before()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.innerHTML</t>
-    </r>
-  </si>
-  <si>
-    <t>the content of an element, including tags, as a string</t>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.insertAdjacentHTML(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>position, string</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">string = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">add a string with HTML tags </t>
-  </si>
-  <si>
-    <t>'beforebegin' / 'afterbegin' / 'beforeend' / 'afterend'</t>
-  </si>
-  <si>
-    <r>
-      <t>.pop(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> .shift(value) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">/     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.splice(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>index, num</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>.reduce(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(acc, element, index, array)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.addEventListener(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>event, handler[, {once: true}]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.removeEventListener(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>event, handler[, {\\options}]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>objName.callbackName.bind(objName)</t>
-  </si>
-  <si>
-    <t>the element on which the event is occured</t>
-  </si>
-  <si>
-    <t>the event type</t>
-  </si>
-  <si>
-    <t>the element on which the event handler is executed</t>
-  </si>
-  <si>
-    <t>completely stop event handling</t>
-  </si>
-  <si>
-    <t>impede the event to go further</t>
-  </si>
-  <si>
-    <t>the character generated by key pressing</t>
-  </si>
-  <si>
-    <t>the code of a physical key on the keyboard</t>
-  </si>
-  <si>
-    <t>a boolean whether key is pressed or not</t>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.type</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.target</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.preventDefault()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.stopPropagation()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.stopImmediatePropagation()</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.key</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.code</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.ctrlKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.altKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.shiftkey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> | </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.metaKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>_.throttle(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>func</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, [{'trailing':true | leading':true}]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>_.debounce(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>func</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, [{trailing:false, leading:true}]</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;img </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>loading</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>="lazy" /&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Boolean(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>'loading' in HTMLImageElement.prototype</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>lazy load below the fold images</t>
-  </si>
-  <si>
-    <t>check if browser supports natively lazy loading</t>
-  </si>
-  <si>
-    <t>current text content of form-elements</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">event </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 'click' / 'submit' / 'change' / 'input' / 'focus' / 'blur' / 'load'</t>
-    </r>
-  </si>
-  <si>
-    <t>control how many times a function to be executed over time</t>
-  </si>
-  <si>
-    <t>.fontSize / .backgroundColor / .textAlign / … [ = 'value']</t>
-  </si>
-  <si>
-    <r>
-      <t>event</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.currentTarget</t>
-    </r>
-  </si>
-  <si>
-    <t>element on which the event handler is executed</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> handler = </t>
-  </si>
-  <si>
-    <r>
-      <t>elemForm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.reset()</t>
-    </r>
-  </si>
-  <si>
-    <t>object with properties of inline element's styles</t>
-  </si>
-  <si>
-    <r>
-      <t>elemForm</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.elements</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">const formData = new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>FormData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>(elemForm)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">clear the values of the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elemForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> form-element</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">object of all names and values of the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>elemForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> form-element</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>elem</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.dataset</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.attrName</t>
-    </r>
-  </si>
-  <si>
-    <t>object of all data-attribute's names and values</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">value of the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>attrName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> data-attribute</t>
-    </r>
+      <t xml:space="preserve">const unique = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Set()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / unique.has(), .add(), .clear(), .delete()</t>
+    </r>
+  </si>
+  <si>
+    <t>store unique values of any type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2397,6 +2532,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2406,7 +2547,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2481,11 +2622,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2520,6 +2683,19 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2531,15 +2707,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2553,8 +2720,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2876,7 +3046,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2909,10 +3079,10 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4">
@@ -2922,12 +3092,12 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="17">
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" ht="34">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A22" si="0">A3+1</f>
         <v>3</v>
@@ -2978,7 +3148,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
@@ -3024,7 +3194,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -3034,7 +3204,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>44</v>
@@ -3099,7 +3269,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>37</v>
@@ -3141,7 +3311,7 @@
         <v>32</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -3164,7 +3334,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
@@ -3200,10 +3370,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3233,7 +3403,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3245,19 +3415,19 @@
         <v>47</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4">
-        <f t="shared" ref="A4:A27" si="0">A3+1</f>
+        <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>58</v>
+      <c r="B4" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3266,10 +3436,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3281,7 +3451,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3290,10 +3460,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>63</v>
+        <v>129</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -3302,10 +3472,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3314,10 +3484,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3326,10 +3496,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3338,10 +3508,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3349,11 +3519,11 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
+      <c r="B12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3361,11 +3531,11 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>58</v>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3373,11 +3543,11 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>53</v>
+      <c r="B14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3385,11 +3555,11 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>74</v>
+      <c r="B15" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3398,139 +3568,167 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
-        <f>A20+1</f>
-        <v>20</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="4">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="13" t="s">
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="C29" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3545,10 +3743,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3559,185 +3757,184 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="11" customFormat="1" ht="18">
+    <row r="1" spans="1:4" s="11" customFormat="1" ht="18">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>123</v>
+      <c r="B4" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C10" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="12" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="12" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="25">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="12" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="26"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="23">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="4">
         <f>A14+1</f>
         <v>14</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>115</v>
+      <c r="B16" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3746,16 +3943,17 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
